--- a/study/pythonTest/Texttest/111.xlsx
+++ b/study/pythonTest/Texttest/111.xlsx
@@ -29,12 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
   <si>
     <t>模块</t>
   </si>
   <si>
     <t>状态</t>
+  </si>
+  <si>
+    <t>日期</t>
   </si>
   <si>
     <t>A01</t>
@@ -674,8 +677,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -989,190 +995,263 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45271.6461805556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C7" s="1">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C12" s="1">
+        <v>45277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16" s="1">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45271</v>
       </c>
     </row>
   </sheetData>
